--- a/results/origin_arousal/s01.xlsx
+++ b/results/origin_arousal/s01.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -683,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5699999928474426</v>
       </c>
       <c r="C2" t="n">
-        <v>998.2191772460938</v>
+        <v>995.9957580566406</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5195454494519667</v>
+        <v>0.5520454482598738</v>
       </c>
       <c r="E2" t="n">
-        <v>997.8291570490056</v>
+        <v>996.8892988725142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4850000143051147</v>
+        <v>0.5599999874830246</v>
       </c>
       <c r="C3" t="n">
-        <v>980.1026306152344</v>
+        <v>978.6795043945312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5429545397108252</v>
+        <v>0.548409101637927</v>
       </c>
       <c r="E3" t="n">
-        <v>979.0938998135654</v>
+        <v>978.614013671875</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C4" t="n">
-        <v>961.9320983886719</v>
+        <v>960.9436950683594</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5606818199157715</v>
+        <v>0.5830681811679493</v>
       </c>
       <c r="E4" t="n">
-        <v>960.8981434215199</v>
+        <v>960.8080388849431</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4800000190734863</v>
+        <v>0.5849999785423279</v>
       </c>
       <c r="C5" t="n">
-        <v>944.2600708007812</v>
+        <v>943.9419555664062</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5684090961109508</v>
+        <v>0.5888636274771257</v>
       </c>
       <c r="E5" t="n">
-        <v>943.058760209517</v>
+        <v>943.3159845525569</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4675000160932541</v>
+        <v>0.5899999737739563</v>
       </c>
       <c r="C6" t="n">
-        <v>926.822021484375</v>
+        <v>926.9426879882812</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5910227298736572</v>
+        <v>0.6097727255387739</v>
       </c>
       <c r="E6" t="n">
-        <v>925.5976007634944</v>
+        <v>926.1190241033381</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4900000095367432</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C7" t="n">
-        <v>909.7705383300781</v>
+        <v>910.3039855957031</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6038636402650313</v>
+        <v>0.6232954480431296</v>
       </c>
       <c r="E7" t="n">
-        <v>908.4715576171875</v>
+        <v>909.2596768465909</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4700000137090683</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C8" t="n">
-        <v>892.9669799804688</v>
+        <v>893.7805480957031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6145454482598738</v>
+        <v>0.6407954584468495</v>
       </c>
       <c r="E8" t="n">
-        <v>891.6490201083096</v>
+        <v>892.687461159446</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4850000143051147</v>
+        <v>0.5674999952316284</v>
       </c>
       <c r="C9" t="n">
-        <v>876.4956665039062</v>
+        <v>877.6763610839844</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6254545450210571</v>
+        <v>0.6455681703307412</v>
       </c>
       <c r="E9" t="n">
-        <v>875.1498801491477</v>
+        <v>876.3861638849431</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5024999976158142</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C10" t="n">
-        <v>860.3054504394531</v>
+        <v>861.7177124023438</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6343181783502753</v>
+        <v>0.6596590930765326</v>
       </c>
       <c r="E10" t="n">
-        <v>858.9367953213779</v>
+        <v>860.3717151988636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="C11" t="n">
-        <v>844.3525390625</v>
+        <v>846.0539855957031</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6460227261890065</v>
+        <v>0.6651136333292181</v>
       </c>
       <c r="E11" t="n">
-        <v>843.0201526988636</v>
+        <v>844.6210382634944</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C12" t="n">
-        <v>828.74072265625</v>
+        <v>830.5863952636719</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6636363593014803</v>
+        <v>0.6715909080071882</v>
       </c>
       <c r="E12" t="n">
-        <v>827.3902254971591</v>
+        <v>829.1613436612216</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C13" t="n">
-        <v>813.3455200195312</v>
+        <v>815.4063415527344</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6723863699219443</v>
+        <v>0.682272732257843</v>
       </c>
       <c r="E13" t="n">
-        <v>812.0496604225852</v>
+        <v>813.9617864435369</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -887,16 +837,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5525000095367432</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C14" t="n">
-        <v>798.2806091308594</v>
+        <v>800.5070495605469</v>
       </c>
       <c r="D14" t="n">
-        <v>0.67068181254647</v>
+        <v>0.6872727329080756</v>
       </c>
       <c r="E14" t="n">
-        <v>796.986982865767</v>
+        <v>799.0271051580256</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C15" t="n">
-        <v>783.5314636230469</v>
+        <v>785.8838195800781</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6792045452378013</v>
+        <v>0.6947727203369141</v>
       </c>
       <c r="E15" t="n">
-        <v>782.2089788263494</v>
+        <v>784.3682528409091</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5724999904632568</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C16" t="n">
-        <v>768.9214782714844</v>
+        <v>771.4278259277344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6880681839856234</v>
+        <v>0.7070454575798728</v>
       </c>
       <c r="E16" t="n">
-        <v>767.6886374733665</v>
+        <v>769.9495683149858</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C17" t="n">
-        <v>754.7098999023438</v>
+        <v>757.3225402832031</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6899999976158142</v>
+        <v>0.7101136391813104</v>
       </c>
       <c r="E17" t="n">
-        <v>753.4454956054688</v>
+        <v>755.813798384233</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5725000202655792</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C18" t="n">
-        <v>740.6075134277344</v>
+        <v>743.3421630859375</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6982954523780129</v>
+        <v>0.7194318175315857</v>
       </c>
       <c r="E18" t="n">
-        <v>739.4562433416194</v>
+        <v>741.9095070578835</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5774999856948853</v>
       </c>
       <c r="C19" t="n">
-        <v>726.9168395996094</v>
+        <v>729.72509765625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6994318203492598</v>
+        <v>0.7169318144971674</v>
       </c>
       <c r="E19" t="n">
-        <v>725.7344804243608</v>
+        <v>728.2590387517756</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.570000022649765</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C20" t="n">
-        <v>713.363037109375</v>
+        <v>716.229248046875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7193181785670194</v>
+        <v>0.7297727140513334</v>
       </c>
       <c r="E20" t="n">
-        <v>712.2491677024148</v>
+        <v>714.8608842329545</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5874999761581421</v>
       </c>
       <c r="C21" t="n">
-        <v>700.1224365234375</v>
+        <v>703.0540161132812</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7200000015172091</v>
+        <v>0.7332954515110363</v>
       </c>
       <c r="E21" t="n">
-        <v>699.0232876864346</v>
+        <v>701.6852028586648</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.570000022649765</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C22" t="n">
-        <v>687.1072998046875</v>
+        <v>690.1093139648438</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7223863655870612</v>
+        <v>0.7440909147262573</v>
       </c>
       <c r="E22" t="n">
-        <v>686.0370205965909</v>
+        <v>688.7673395330256</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1040,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C23" t="n">
-        <v>674.3255615234375</v>
+        <v>677.3916931152344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7349999980493025</v>
+        <v>0.7489772709933195</v>
       </c>
       <c r="E23" t="n">
-        <v>673.2941339666194</v>
+        <v>676.0670332475142</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5649999976158142</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C24" t="n">
-        <v>661.7913818359375</v>
+        <v>664.902587890625</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7351136315952648</v>
+        <v>0.7476136359301481</v>
       </c>
       <c r="E24" t="n">
-        <v>660.7874755859375</v>
+        <v>663.6120106090199</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5725000202655792</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C25" t="n">
-        <v>649.4825134277344</v>
+        <v>652.6064453125</v>
       </c>
       <c r="D25" t="n">
-        <v>0.736818178133531</v>
+        <v>0.7554545456712897</v>
       </c>
       <c r="E25" t="n">
-        <v>648.5080122514205</v>
+        <v>651.3756824840199</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5850000083446503</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C26" t="n">
-        <v>637.3862609863281</v>
+        <v>640.5552368164062</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7432954528115012</v>
+        <v>0.7528409145095132</v>
       </c>
       <c r="E26" t="n">
-        <v>636.4620139382102</v>
+        <v>639.3637195933949</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5675000250339508</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C27" t="n">
-        <v>625.5472412109375</v>
+        <v>628.7568054199219</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7380681796507402</v>
+        <v>0.7536363710056652</v>
       </c>
       <c r="E27" t="n">
-        <v>624.6418512517756</v>
+        <v>627.5729037198154</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C28" t="n">
-        <v>613.8873291015625</v>
+        <v>617.1160583496094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7387499971823259</v>
+        <v>0.7651136354966597</v>
       </c>
       <c r="E28" t="n">
-        <v>613.0404052734375</v>
+        <v>615.9997836026279</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1142,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5949999988079071</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C29" t="n">
-        <v>602.483642578125</v>
+        <v>605.7657165527344</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7450000047683716</v>
+        <v>0.7548863616856661</v>
       </c>
       <c r="E29" t="n">
-        <v>601.6567327325994</v>
+        <v>604.6395152698864</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1162,13 +1112,13 @@
         <v>0.5900000035762787</v>
       </c>
       <c r="C30" t="n">
-        <v>591.2680053710938</v>
+        <v>594.5474548339844</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7461363619024103</v>
+        <v>0.7700000026009299</v>
       </c>
       <c r="E30" t="n">
-        <v>590.4848688299006</v>
+        <v>593.4814952503551</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C31" t="n">
-        <v>580.2667541503906</v>
+        <v>583.5570373535156</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7485227313908663</v>
+        <v>0.7751136313785206</v>
       </c>
       <c r="E31" t="n">
-        <v>579.5211570046165</v>
+        <v>582.5360662286931</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6049999892711639</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C32" t="n">
-        <v>569.4959716796875</v>
+        <v>572.802001953125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.7463636289943348</v>
+        <v>0.763977278362621</v>
       </c>
       <c r="E32" t="n">
-        <v>568.7707297585227</v>
+        <v>571.794716574929</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.6175000071525574</v>
       </c>
       <c r="C33" t="n">
-        <v>558.9136047363281</v>
+        <v>562.2105102539062</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7485227259722623</v>
+        <v>0.769659085707231</v>
       </c>
       <c r="E33" t="n">
-        <v>558.2193603515625</v>
+        <v>561.2517700195312</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C34" t="n">
-        <v>548.5393371582031</v>
+        <v>551.8379821777344</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7498863610354337</v>
+        <v>0.769204551523382</v>
       </c>
       <c r="E34" t="n">
-        <v>547.8652121803977</v>
+        <v>550.9074873490767</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C35" t="n">
-        <v>538.3407897949219</v>
+        <v>541.6471252441406</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7461363619024103</v>
+        <v>0.7751136367971246</v>
       </c>
       <c r="E35" t="n">
-        <v>537.7094449129971</v>
+        <v>540.7517755681819</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C36" t="n">
-        <v>528.3527526855469</v>
+        <v>531.6578369140625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7435227253220298</v>
+        <v>0.7761363712224093</v>
       </c>
       <c r="E36" t="n">
-        <v>527.7473643909801</v>
+        <v>530.7889404296875</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.6124999821186066</v>
       </c>
       <c r="C37" t="n">
-        <v>518.5560607910156</v>
+        <v>521.8350524902344</v>
       </c>
       <c r="D37" t="n">
-        <v>0.745568188753995</v>
+        <v>0.7723863558335737</v>
       </c>
       <c r="E37" t="n">
-        <v>517.9758078835227</v>
+        <v>521.0139659534801</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5850000083446503</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C38" t="n">
-        <v>508.9516906738281</v>
+        <v>512.2326965332031</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7455681779167869</v>
+        <v>0.7678409110416066</v>
       </c>
       <c r="E38" t="n">
-        <v>508.386962890625</v>
+        <v>511.4209872159091</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5674999952316284</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C39" t="n">
-        <v>499.511474609375</v>
+        <v>502.7667999267578</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7472727298736572</v>
+        <v>0.7747727307406339</v>
       </c>
       <c r="E39" t="n">
-        <v>498.9835121848366</v>
+        <v>502.0107144442472</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C40" t="n">
-        <v>490.2694702148438</v>
+        <v>493.5197906494141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7534090822393243</v>
+        <v>0.7734090902588584</v>
       </c>
       <c r="E40" t="n">
-        <v>489.7563975941051</v>
+        <v>492.7761119495739</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1346,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C41" t="n">
-        <v>481.1963348388672</v>
+        <v>484.4202270507812</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7442045428536155</v>
+        <v>0.7749999978325584</v>
       </c>
       <c r="E41" t="n">
-        <v>480.7098749334162</v>
+        <v>483.718281139027</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C42" t="n">
-        <v>472.2944641113281</v>
+        <v>475.5130004882812</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7435227307406339</v>
+        <v>0.7711363597349687</v>
       </c>
       <c r="E42" t="n">
-        <v>471.8335404829546</v>
+        <v>474.8301197398793</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C43" t="n">
-        <v>463.5742492675781</v>
+        <v>466.7567443847656</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7484090870076959</v>
+        <v>0.7701136253096841</v>
       </c>
       <c r="E43" t="n">
-        <v>463.1263538707386</v>
+        <v>466.1095830743963</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C44" t="n">
-        <v>455.0157623291016</v>
+        <v>458.1878814697266</v>
       </c>
       <c r="D44" t="n">
-        <v>0.742045445875688</v>
+        <v>0.7663636315952648</v>
       </c>
       <c r="E44" t="n">
-        <v>454.5876326127486</v>
+        <v>457.5547846013849</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C45" t="n">
-        <v>446.6118621826172</v>
+        <v>449.7667999267578</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7447727214206349</v>
+        <v>0.7640909064899791</v>
       </c>
       <c r="E45" t="n">
-        <v>446.2121027166193</v>
+        <v>449.1638793945312</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5875000059604645</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C46" t="n">
-        <v>438.3850708007812</v>
+        <v>441.5165557861328</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7411363612521779</v>
+        <v>0.7637499895962802</v>
       </c>
       <c r="E46" t="n">
-        <v>437.9970092773438</v>
+        <v>440.9299843528054</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6100000143051147</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="C47" t="n">
-        <v>430.3124389648438</v>
+        <v>433.4124603271484</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7390909032388167</v>
+        <v>0.7679545500061729</v>
       </c>
       <c r="E47" t="n">
-        <v>429.9390813654119</v>
+        <v>432.8536044034091</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1465,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C48" t="n">
-        <v>422.3934173583984</v>
+        <v>425.4661102294922</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7406818216497247</v>
+        <v>0.7647727240215648</v>
       </c>
       <c r="E48" t="n">
-        <v>422.0386491255327</v>
+        <v>424.9328973943537</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6099999845027924</v>
       </c>
       <c r="C49" t="n">
-        <v>414.6249847412109</v>
+        <v>417.6633453369141</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7396590980616483</v>
+        <v>0.763636361468922</v>
       </c>
       <c r="E49" t="n">
-        <v>414.2883772416548</v>
+        <v>417.1620039506392</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.612500011920929</v>
+        <v>0.6149999797344208</v>
       </c>
       <c r="C50" t="n">
-        <v>407.0116729736328</v>
+        <v>410.0279388427734</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7378409179774198</v>
+        <v>0.7682954506440596</v>
       </c>
       <c r="E50" t="n">
-        <v>406.6869895241477</v>
+        <v>409.539589621804</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.612500011920929</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C51" t="n">
-        <v>399.5410003662109</v>
+        <v>402.5277252197266</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7339772798798301</v>
+        <v>0.7577272761951793</v>
       </c>
       <c r="E51" t="n">
-        <v>399.2342668013139</v>
+        <v>402.0640231045809</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.6150000095367432</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C52" t="n">
-        <v>392.2185974121094</v>
+        <v>395.1804504394531</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7381818186153065</v>
+        <v>0.7610227248885415</v>
       </c>
       <c r="E52" t="n">
-        <v>391.9238863858309</v>
+        <v>394.7291176535866</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.6074999868869781</v>
       </c>
       <c r="C53" t="n">
-        <v>385.0347595214844</v>
+        <v>387.9555206298828</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7345454584468495</v>
+        <v>0.753181820566004</v>
       </c>
       <c r="E53" t="n">
-        <v>384.7536010742188</v>
+        <v>387.5362299138849</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6024999916553497</v>
+        <v>0.6299999952316284</v>
       </c>
       <c r="C54" t="n">
-        <v>377.9921569824219</v>
+        <v>380.8854217529297</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7299999973990701</v>
+        <v>0.7577272761951793</v>
       </c>
       <c r="E54" t="n">
-        <v>377.7232582785866</v>
+        <v>380.4810874245384</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5900000035762787</v>
+        <v>0.6049999892711639</v>
       </c>
       <c r="C55" t="n">
-        <v>371.0818634033203</v>
+        <v>373.9492034912109</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7345454584468495</v>
+        <v>0.7538636326789856</v>
       </c>
       <c r="E55" t="n">
-        <v>370.8282110040838</v>
+        <v>373.5599920099432</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.6150000095367432</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C56" t="n">
-        <v>364.3093719482422</v>
+        <v>367.1375427246094</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7355681766163219</v>
+        <v>0.7499999945813959</v>
       </c>
       <c r="E56" t="n">
-        <v>364.0665976784446</v>
+        <v>366.7744029651989</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C57" t="n">
-        <v>357.6691589355469</v>
+        <v>360.4759063720703</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7356818209994923</v>
+        <v>0.7481818144971674</v>
       </c>
       <c r="E57" t="n">
-        <v>357.4346674138849</v>
+        <v>360.1149014559659</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.6049999892711639</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C58" t="n">
-        <v>351.1574249267578</v>
+        <v>353.9294891357422</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7310227318243547</v>
+        <v>0.7479545419866388</v>
       </c>
       <c r="E58" t="n">
-        <v>350.9314686168324</v>
+        <v>353.5861760919744</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5949999988079071</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C59" t="n">
-        <v>344.7690734863281</v>
+        <v>347.5053405761719</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7277272777123884</v>
+        <v>0.7509090900421143</v>
       </c>
       <c r="E59" t="n">
-        <v>344.555419921875</v>
+        <v>347.1823147860441</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5925000011920929</v>
+        <v>0.6024999916553497</v>
       </c>
       <c r="C60" t="n">
-        <v>338.5057678222656</v>
+        <v>341.2058563232422</v>
       </c>
       <c r="D60" t="n">
-        <v>0.726363642649217</v>
+        <v>0.7480681863698092</v>
       </c>
       <c r="E60" t="n">
-        <v>338.300312389027</v>
+        <v>340.9013505415483</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1689,13 +1639,13 @@
         <v>0.5925000011920929</v>
       </c>
       <c r="C61" t="n">
-        <v>332.3697509765625</v>
+        <v>335.0370788574219</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7207954525947571</v>
+        <v>0.7460227283564481</v>
       </c>
       <c r="E61" t="n">
-        <v>332.1695945046165</v>
+        <v>334.7423983487216</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.6099999845027924</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C62" t="n">
-        <v>326.3446655273438</v>
+        <v>328.9818115234375</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7254545363512906</v>
+        <v>0.7386363744735718</v>
       </c>
       <c r="E62" t="n">
-        <v>326.1533286354759</v>
+        <v>328.699238170277</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C63" t="n">
-        <v>320.4402770996094</v>
+        <v>323.0451049804688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7239772785793651</v>
+        <v>0.7414772727272727</v>
       </c>
       <c r="E63" t="n">
-        <v>320.2563060413707</v>
+        <v>322.7747053666548</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1740,13 +1690,13 @@
         <v>0.5949999988079071</v>
       </c>
       <c r="C64" t="n">
-        <v>314.6504516601562</v>
+        <v>317.2201538085938</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7237500006502325</v>
+        <v>0.7385227300904014</v>
       </c>
       <c r="E64" t="n">
-        <v>314.4722345525568</v>
+        <v>316.9618141867898</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.5975000262260437</v>
       </c>
       <c r="C65" t="n">
-        <v>308.9687347412109</v>
+        <v>311.5062561035156</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7210227251052856</v>
+        <v>0.7387500080195341</v>
       </c>
       <c r="E65" t="n">
-        <v>308.8023737127131</v>
+        <v>311.2637301358309</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.6124999821186066</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C66" t="n">
-        <v>303.4065856933594</v>
+        <v>305.9049072265625</v>
       </c>
       <c r="D66" t="n">
-        <v>0.718409083106301</v>
+        <v>0.7307954647324302</v>
       </c>
       <c r="E66" t="n">
-        <v>303.2401039817116</v>
+        <v>305.6751986416903</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.612500011920929</v>
       </c>
       <c r="C67" t="n">
-        <v>297.9454345703125</v>
+        <v>300.4139251708984</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7242045510898937</v>
+        <v>0.7302272753282026</v>
       </c>
       <c r="E67" t="n">
-        <v>297.7867431640625</v>
+        <v>300.1937561035156</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.6099999845027924</v>
+        <v>0.6050000190734863</v>
       </c>
       <c r="C68" t="n">
-        <v>292.5893707275391</v>
+        <v>295.0276641845703</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7187499891627919</v>
+        <v>0.7309090982783925</v>
       </c>
       <c r="E68" t="n">
-        <v>292.4397444291548</v>
+        <v>294.8184037642046</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5974999964237213</v>
+        <v>0.6050000190734863</v>
       </c>
       <c r="C69" t="n">
-        <v>287.3414764404297</v>
+        <v>289.7461853027344</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7153409177606757</v>
+        <v>0.7322727170857516</v>
       </c>
       <c r="E69" t="n">
-        <v>287.1961836381392</v>
+        <v>289.5458207563921</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.6100000143051147</v>
       </c>
       <c r="C70" t="n">
-        <v>282.1927185058594</v>
+        <v>284.5645904541016</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7147727283564481</v>
+        <v>0.7248863632028754</v>
       </c>
       <c r="E70" t="n">
-        <v>282.0542047674006</v>
+        <v>284.3762373490767</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.6074999868869781</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C71" t="n">
-        <v>277.1430358886719</v>
+        <v>279.4805450439453</v>
       </c>
       <c r="D71" t="n">
-        <v>0.7122727307406339</v>
+        <v>0.7176136320287531</v>
       </c>
       <c r="E71" t="n">
-        <v>277.0117409446023</v>
+        <v>279.3063132546165</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,1212 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.4457142857142857</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4382022471910113</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.006622516556291391</v>
+        <v>0.6819672131147541</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.6753246753246753</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.01324503311258278</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.01324503311258278</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02247191011235955</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.01986754966887417</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.02247191011235955</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.01986754966887417</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0449438202247191</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.04635761589403974</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0449438202247191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.04635761589403974</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.05617977528089887</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.05960264900662252</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05617977528089887</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05960264900662252</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06741573033707865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.06622516556291391</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06741573033707865</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.06622516556291391</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07865168539325842</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.0728476821192053</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.07865168539325842</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.0728476821192053</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0898876404494382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.09271523178807947</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0898876404494382</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.09271523178807947</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1235955056179775</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.09933774834437085</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1235955056179775</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.09933774834437085</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1460674157303371</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.1059602649006623</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1460674157303371</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.1059602649006623</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1573033707865168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.1125827814569536</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1573033707865168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.1125827814569536</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1685393258426966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.1324503311258278</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1685393258426966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.1324503311258278</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.2247191011235955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.1456953642384106</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.2247191011235955</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.1456953642384106</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2359550561797753</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.152317880794702</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2359550561797753</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.152317880794702</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2584269662921349</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.1788079470198675</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.2584269662921349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.1788079470198675</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2696629213483146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.1920529801324503</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2696629213483146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.1920529801324503</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.3258426966292135</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.2251655629139073</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.3258426966292135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.2251655629139073</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.3370786516853932</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.2317880794701987</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.3370786516853932</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.2317880794701987</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.3483146067415731</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.2516556291390729</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.3483146067415731</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.2516556291390729</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.3595505617977528</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
-        <v>0.2649006622516556</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.3595505617977528</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.2649006622516556</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.3820224719101123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.2847682119205298</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.3820224719101123</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.2847682119205298</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.4044943820224719</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.3112582781456953</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.4044943820224719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.3112582781456953</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.4157303370786517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.3377483443708609</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.4157303370786517</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.3377483443708609</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.4382022471910113</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.3642384105960265</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4382022471910113</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.3642384105960265</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4719101123595505</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.3774834437086093</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4719101123595505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.3774834437086093</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4943820224719101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.3841059602649007</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4943820224719101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.3841059602649007</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.5056179775280899</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.3907284768211921</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5056179775280899</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.3907284768211921</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5280898876404494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.4172185430463576</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5280898876404494</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.4172185430463576</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.550561797752809</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.4503311258278146</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.550561797752809</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.4503311258278146</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5617977528089888</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.4966887417218543</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5617977528089888</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.4966887417218543</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5730337078651685</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.5033112582781457</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5730337078651685</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.5033112582781457</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5955056179775281</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.5231788079470199</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5955056179775281</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.5231788079470199</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.6067415730337079</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
-        <v>0.5298013245033113</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.6067415730337079</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.5298013245033113</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.6179775280898876</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.5496688741721855</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.6179775280898876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.5496688741721855</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.6292134831460674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.5695364238410596</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.6292134831460674</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.5695364238410596</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.6404494382022472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.5761589403973509</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6404494382022472</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.5761589403973509</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.6741573033707865</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.6026490066225165</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.6741573033707865</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>0.6026490066225165</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>0.6092715231788079</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.6966292134831461</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>0.6092715231788079</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.7191011235955056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>0.6158940397350994</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.7191011235955056</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>0.6158940397350994</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.7303370786516854</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>0.6357615894039735</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.7303370786516854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>0.6357615894039735</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.7528089887640449</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.6688741721854304</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.7528089887640449</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.6688741721854304</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.7640449438202247</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>0.6821192052980133</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.7640449438202247</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="n">
-        <v>0.6821192052980133</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7865168539325843</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="n">
-        <v>0.7483443708609272</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.7865168539325843</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="n">
-        <v>0.7483443708609272</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.8089887640449438</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="n">
-        <v>0.7682119205298014</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.8089887640449438</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="n">
-        <v>0.7682119205298014</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.8426966292134831</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="n">
-        <v>0.7814569536423841</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.8426966292134831</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="n">
-        <v>0.7814569536423841</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.8764044943820225</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="n">
-        <v>0.8013245033112583</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8764044943820225</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="n">
-        <v>0.8013245033112583</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.8876404494382022</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="n">
-        <v>0.8211920529801324</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8876404494382022</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.8211920529801324</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.9101123595505618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.8278145695364238</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.9101123595505618</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.8278145695364238</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.9213483146067416</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.8410596026490066</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.9213483146067416</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.8410596026490066</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.9438202247191011</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.8609271523178808</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.9438202247191011</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.8609271523178808</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.9550561797752809</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>0.8940397350993378</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.9550561797752809</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="n">
-        <v>0.8940397350993378</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9662921348314607</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="n">
-        <v>0.9271523178807947</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9662921348314607</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="n">
-        <v>0.9271523178807947</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9775280898876404</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="n">
-        <v>0.9668874172185431</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9775280898876404</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="n">
-        <v>0.9668874172185431</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="n">
-        <v>0.9933774834437086</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9887640449438202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.9933774834437086</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>1</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C110" t="n">
-        <v>1</v>
+        <v>0.6887417218543046</v>
       </c>
     </row>
   </sheetData>
@@ -3108,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3118,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3132,7 +1905,1335 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01123595505617977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0.01324503311258278</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01123595505617977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.01324503311258278</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.03370786516853932</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.02649006622516556</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.03370786516853932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.02649006622516556</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0449438202247191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.03973509933774835</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0449438202247191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.03973509933774835</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0898876404494382</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.04635761589403974</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0898876404494382</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.04635761589403974</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.101123595505618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.07947019867549669</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.101123595505618</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.07947019867549669</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1123595505617977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.08609271523178808</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1123595505617977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.08609271523178808</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1348314606741573</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.09271523178807947</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1348314606741573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.09271523178807947</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1460674157303371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.09933774834437085</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1460674157303371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.09933774834437085</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1573033707865168</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.1059602649006623</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1573033707865168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.1059602649006623</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1685393258426966</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.1125827814569536</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1685393258426966</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.1125827814569536</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2022471910112359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.119205298013245</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2022471910112359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.119205298013245</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2134831460674157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.1258278145695364</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2134831460674157</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.1258278145695364</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2247191011235955</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.1324503311258278</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2247191011235955</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.1324503311258278</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2359550561797753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.1390728476821192</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2359550561797753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.1390728476821192</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.247191011235955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.152317880794702</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.247191011235955</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.152317880794702</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2808988764044944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.1655629139072848</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2808988764044944</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.1655629139072848</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.303370786516854</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.1721854304635762</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.303370786516854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.1721854304635762</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.1986754966887417</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3146067415730337</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.1986754966887417</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3258426966292135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.2052980132450331</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3258426966292135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.2052980132450331</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3370786516853932</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.2516556291390729</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3370786516853932</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.2516556291390729</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3483146067415731</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.2649006622516556</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.3483146067415731</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.2649006622516556</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.3595505617977528</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.2781456953642384</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3595505617977528</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.2781456953642384</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3707865168539326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.3707865168539326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.2847682119205298</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4044943820224719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.2913907284768212</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4044943820224719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.2913907284768212</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4157303370786517</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.2980132450331126</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4157303370786517</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.2980132450331126</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4269662921348314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.304635761589404</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.4269662921348314</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.304635761589404</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.4382022471910113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.3112582781456953</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4382022471910113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.3112582781456953</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.449438202247191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.3178807947019868</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.449438202247191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.3178807947019868</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4606741573033708</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.3311258278145696</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4606741573033708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.3311258278145696</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.4831460674157304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.3509933774834437</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4831460674157304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.3509933774834437</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5056179775280899</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.3576158940397351</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5056179775280899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.3576158940397351</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5168539325842697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.3774834437086093</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5168539325842697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.3774834437086093</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5617977528089888</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.3841059602649007</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5617977528089888</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.3841059602649007</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5842696629213483</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.4370860927152318</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5842696629213483</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.4370860927152318</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5955056179775281</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.4503311258278146</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.5955056179775281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.4503311258278146</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6067415730337079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.4768211920529801</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6067415730337079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.4768211920529801</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6292134831460674</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.5165562913907285</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6292134831460674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0.5165562913907285</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.651685393258427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.5231788079470199</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.651685393258427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0.5231788079470199</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.6629213483146067</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0.543046357615894</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6629213483146067</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0.543046357615894</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6741573033707865</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.5562913907284768</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.6741573033707865</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.5562913907284768</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.6853932584269663</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.5629139072847682</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6853932584269663</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.5629139072847682</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6966292134831461</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.5960264900662252</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.6966292134831461</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.5960264900662252</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7078651685393258</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.6026490066225165</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7078651685393258</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.6026490066225165</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7191011235955056</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.6225165562913907</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7191011235955056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.6225165562913907</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7303370786516854</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.6357615894039735</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7303370786516854</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.6357615894039735</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.7086092715231788</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7415730337078652</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.7086092715231788</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7528089887640449</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.7218543046357616</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7528089887640449</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.7218543046357616</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7640449438202247</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.7880794701986755</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.7640449438202247</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.7880794701986755</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.7752808988764045</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.8013245033112583</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.7752808988764045</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.8013245033112583</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.797752808988764</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.8278145695364238</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.797752808988764</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.8278145695364238</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8314606741573034</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.8344370860927153</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8314606741573034</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.8344370860927153</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8426966292134831</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.8609271523178808</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8426966292134831</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.8609271523178808</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.8651685393258427</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.8940397350993378</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8651685393258427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0.8940397350993378</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8764044943820225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0.9006622516556292</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8764044943820225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0.9006622516556292</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.8876404494382022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.9072847682119205</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8876404494382022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.9072847682119205</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9101123595505618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9101123595505618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9213483146067416</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.9337748344370861</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9213483146067416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9337748344370861</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9325842696629213</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9470198675496688</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9325842696629213</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9470198675496688</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>1</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5762333506957363</v>
       </c>
       <c r="C2" t="n">
         <v>0.006622516556291391</v>
@@ -3140,307 +3241,307 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.01123595505617977</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006622516556291391</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01123595505617977</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03311258278145696</v>
+        <v>0.05298013245033113</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02247191011235955</v>
+        <v>0.06741573033707865</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03311258278145696</v>
+        <v>0.06622516556291391</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.02247191011235955</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0728476821192053</v>
+        <v>0.06622516556291391</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0728476821192053</v>
+        <v>0.08609271523178808</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.03370786516853932</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.08609271523178808</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.0449438202247191</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1059602649006623</v>
+        <v>0.09271523178807947</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.0449438202247191</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1390728476821192</v>
+        <v>0.09271523178807947</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1390728476821192</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.05617977528089887</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1589403973509934</v>
+        <v>0.09933774834437085</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.1235955056179775</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1589403973509934</v>
+        <v>0.1059602649006623</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.07865168539325842</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1721854304635762</v>
+        <v>0.1059602649006623</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.1348314606741573</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1721854304635762</v>
+        <v>0.1390728476821192</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.0898876404494382</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1788079470198675</v>
+        <v>0.1390728476821192</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1123595505617977</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1788079470198675</v>
+        <v>0.1655629139072848</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1123595505617977</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1986754966887417</v>
+        <v>0.1655629139072848</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1986754966887417</v>
+        <v>0.1721854304635762</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1235955056179775</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2185430463576159</v>
+        <v>0.1721854304635762</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1573033707865168</v>
+        <v>0.2022471910112359</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2185430463576159</v>
+        <v>0.1986754966887417</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1573033707865168</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2317880794701987</v>
+        <v>0.1986754966887417</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1910112359550562</v>
+        <v>0.2247191011235955</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2317880794701987</v>
+        <v>0.2119205298013245</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1910112359550562</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2516556291390729</v>
+        <v>0.2119205298013245</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.2134831460674157</v>
+        <v>0.2359550561797753</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2516556291390729</v>
+        <v>0.2781456953642384</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.2134831460674157</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3178807947019868</v>
+        <v>0.2781456953642384</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.2359550561797753</v>
+        <v>0.247191011235955</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3178807947019868</v>
+        <v>0.2913907284768212</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2359550561797753</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3311258278145696</v>
+        <v>0.2913907284768212</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.247191011235955</v>
+        <v>0.2584269662921349</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3311258278145696</v>
+        <v>0.3642384105960265</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.247191011235955</v>
+        <v>0.2696629213483146</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C30" t="n">
         <v>0.3642384105960265</v>
@@ -3451,21 +3552,21 @@
         <v>0.2696629213483146</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3642384105960265</v>
+        <v>0.3774834437086093</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2696629213483146</v>
+        <v>0.2808988764044944</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3841059602649007</v>
+        <v>0.3774834437086093</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -3473,32 +3574,32 @@
         <v>0.2808988764044944</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3841059602649007</v>
+        <v>0.3973509933774834</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2808988764044944</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3907284768211921</v>
+        <v>0.3973509933774834</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.303370786516854</v>
+        <v>0.2921348314606741</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3907284768211921</v>
+        <v>0.4039735099337748</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -3506,241 +3607,241 @@
         <v>0.303370786516854</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3973509933774834</v>
+        <v>0.4039735099337748</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.303370786516854</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3973509933774834</v>
+        <v>0.4370860927152318</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3258426966292135</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C38" t="n">
-        <v>0.423841059602649</v>
+        <v>0.4370860927152318</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3595505617977528</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C39" t="n">
-        <v>0.423841059602649</v>
+        <v>0.4437086092715232</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3595505617977528</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4304635761589404</v>
+        <v>0.4437086092715232</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4304635761589404</v>
+        <v>0.456953642384106</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3707865168539326</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4503311258278146</v>
+        <v>0.456953642384106</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3820224719101123</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4503311258278146</v>
+        <v>0.4768211920529801</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3820224719101123</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4701986754966888</v>
+        <v>0.4768211920529801</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3932584269662922</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4701986754966888</v>
+        <v>0.4834437086092715</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3932584269662922</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4768211920529801</v>
+        <v>0.4834437086092715</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.4044943820224719</v>
+        <v>0.3707865168539326</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4768211920529801</v>
+        <v>0.5231788079470199</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.4044943820224719</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4966887417218543</v>
+        <v>0.5231788079470199</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.4269662921348314</v>
+        <v>0.3932584269662922</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4966887417218543</v>
+        <v>0.5496688741721855</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4269662921348314</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5033112582781457</v>
+        <v>0.5496688741721855</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4382022471910113</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5033112582781457</v>
+        <v>0.5629139072847682</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4382022471910113</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5496688741721855</v>
+        <v>0.5629139072847682</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.449438202247191</v>
+        <v>0.4157303370786517</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5496688741721855</v>
+        <v>0.6158940397350994</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.449438202247191</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5827814569536424</v>
+        <v>0.6158940397350994</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4719101123595505</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5827814569536424</v>
+        <v>0.6225165562913907</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4719101123595505</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6092715231788079</v>
+        <v>0.6225165562913907</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4943820224719101</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C57" t="n">
-        <v>0.6092715231788079</v>
+        <v>0.6423841059602649</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -3748,95 +3849,95 @@
         <v>0.4943820224719101</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C58" t="n">
-        <v>0.6158940397350994</v>
+        <v>0.6423841059602649</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C59" t="n">
-        <v>0.6158940397350994</v>
+        <v>0.6490066225165563</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5056179775280899</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C60" t="n">
-        <v>0.6225165562913907</v>
+        <v>0.6490066225165563</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5280898876404494</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6225165562913907</v>
+        <v>0.6688741721854304</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5280898876404494</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6357615894039735</v>
+        <v>0.6688741721854304</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5617977528089888</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6357615894039735</v>
+        <v>0.6821192052980133</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5617977528089888</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C64" t="n">
-        <v>0.6622516556291391</v>
+        <v>0.6821192052980133</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5842696629213483</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C65" t="n">
-        <v>0.6622516556291391</v>
+        <v>0.6887417218543046</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5842696629213483</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C66" t="n">
         <v>0.6887417218543046</v>
@@ -3844,463 +3945,595 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5955056179775281</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6887417218543046</v>
+        <v>0.695364238410596</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5955056179775281</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C68" t="n">
-        <v>0.7152317880794702</v>
+        <v>0.695364238410596</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.6179775280898876</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7152317880794702</v>
+        <v>0.7019867549668874</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6179775280898876</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C70" t="n">
-        <v>0.7350993377483444</v>
+        <v>0.7019867549668874</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6404494382022472</v>
+        <v>0.5842696629213483</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C71" t="n">
-        <v>0.7350993377483444</v>
+        <v>0.7086092715231788</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6404494382022472</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7483443708609272</v>
+        <v>0.7086092715231788</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.651685393258427</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C73" t="n">
-        <v>0.7483443708609272</v>
+        <v>0.7152317880794702</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.651685393258427</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C74" t="n">
-        <v>0.7682119205298014</v>
+        <v>0.7152317880794702</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.6629213483146067</v>
+        <v>0.6292134831460674</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7682119205298014</v>
+        <v>0.7218543046357616</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.6629213483146067</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7748344370860927</v>
+        <v>0.7218543046357616</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.6741573033707865</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7748344370860927</v>
+        <v>0.7350993377483444</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.6741573033707865</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C78" t="n">
-        <v>0.8079470198675497</v>
+        <v>0.7350993377483444</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7303370786516854</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8079470198675497</v>
+        <v>0.7483443708609272</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7303370786516854</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8211920529801324</v>
+        <v>0.7483443708609272</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7415730337078652</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C81" t="n">
-        <v>0.8211920529801324</v>
+        <v>0.7947019867549668</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7415730337078652</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C82" t="n">
-        <v>0.847682119205298</v>
+        <v>0.7947019867549668</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7640449438202247</v>
+        <v>0.6741573033707865</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C83" t="n">
-        <v>0.847682119205298</v>
+        <v>0.8013245033112583</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7640449438202247</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C84" t="n">
-        <v>0.8543046357615894</v>
+        <v>0.8013245033112583</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7752808988764045</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C85" t="n">
-        <v>0.8543046357615894</v>
+        <v>0.8278145695364238</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7752808988764045</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C86" t="n">
-        <v>0.8675496688741722</v>
+        <v>0.8278145695364238</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.8314606741573034</v>
+        <v>0.6966292134831461</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C87" t="n">
-        <v>0.8675496688741722</v>
+        <v>0.8344370860927153</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.8314606741573034</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C88" t="n">
-        <v>0.8874172185430463</v>
+        <v>0.8344370860927153</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.8426966292134831</v>
+        <v>0.7191011235955056</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8874172185430463</v>
+        <v>0.847682119205298</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8426966292134831</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8940397350993378</v>
+        <v>0.847682119205298</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8539325842696629</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8940397350993378</v>
+        <v>0.8609271523178808</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8539325842696629</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9006622516556292</v>
+        <v>0.8609271523178808</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.7640449438202247</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C93" t="n">
-        <v>0.9006622516556292</v>
+        <v>0.8675496688741722</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8764044943820225</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C94" t="n">
-        <v>0.9072847682119205</v>
+        <v>0.8675496688741722</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.9101123595505618</v>
+        <v>0.7752808988764045</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C95" t="n">
-        <v>0.9072847682119205</v>
+        <v>0.8741721854304636</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.9101123595505618</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C96" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.8741721854304636</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.9213483146067416</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C97" t="n">
-        <v>0.9271523178807947</v>
+        <v>0.8807947019867549</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.9213483146067416</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C98" t="n">
-        <v>0.9337748344370861</v>
+        <v>0.8807947019867549</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.9325842696629213</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C99" t="n">
-        <v>0.9337748344370861</v>
+        <v>0.8874172185430463</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.9325842696629213</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9403973509933775</v>
+        <v>0.8874172185430463</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C101" t="n">
-        <v>0.9403973509933775</v>
+        <v>0.8940397350993378</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.9438202247191011</v>
+        <v>0.8426966292134831</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C102" t="n">
-        <v>0.9536423841059603</v>
+        <v>0.8940397350993378</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.9550561797752809</v>
+        <v>0.8426966292134831</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9536423841059603</v>
+        <v>0.9006622516556292</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9550561797752809</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9801324503311258</v>
+        <v>0.9006622516556292</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9775280898876404</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C105" t="n">
-        <v>0.9801324503311258</v>
+        <v>0.9072847682119205</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9775280898876404</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C106" t="n">
-        <v>0.9867549668874173</v>
+        <v>0.9072847682119205</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>1</v>
+        <v>0.8651685393258427</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5748195550264157</v>
+        <v>0.5762333506957363</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9867549668874173</v>
+        <v>0.9139072847682119</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
+        <v>0.8876404494382022</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9139072847682119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0.8876404494382022</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9205298013245033</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0.898876404494382</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9205298013245033</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.898876404494382</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9536423841059603</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.9101123595505618</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9536423841059603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.9101123595505618</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9602649006622517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9602649006622517</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.9550561797752809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9735099337748344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9662921348314607</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9735099337748344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9662921348314607</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9867549668874173</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9867549668874173</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9887640449438202</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C119" t="n">
         <v>1</v>
       </c>
-      <c r="B108" t="n">
-        <v>0.5748195550264157</v>
-      </c>
-      <c r="C108" t="n">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>1</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5762333506957363</v>
+      </c>
+      <c r="C120" t="n">
         <v>1</v>
       </c>
     </row>
